--- a/data_logger_BOM.xlsx
+++ b/data_logger_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owhite/kicad/data_logger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E6C997F-14DA-744F-ACF9-870E5B13A99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D94FBB-6969-2F4B-91B7-04218199A246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20380" yWindow="5400" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="13880" yWindow="6060" windowWidth="27640" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="data_logger" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>Comment</t>
   </si>
@@ -139,24 +139,6 @@
     <t>C72041</t>
   </si>
   <si>
-    <t>Conn_01x03</t>
-  </si>
-  <si>
-    <t>J3,J4</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_1x03_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>PROG ESP32</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_1x04_P2.54mm_Vertical</t>
-  </si>
-  <si>
     <t>SD_Card</t>
   </si>
   <si>
@@ -166,7 +148,7 @@
     <t>Connector_Card:TF-SMD_TF-013-A</t>
   </si>
   <si>
-    <t>C961683</t>
+    <t>C444917</t>
   </si>
   <si>
     <t>27nH</t>
@@ -193,13 +175,22 @@
     <t>C482341</t>
   </si>
   <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>R1,R4,R12,R13</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>C4184</t>
+  </si>
+  <si>
     <t>10k</t>
   </si>
   <si>
     <t>R2,R7,R8,R9,R10,R11</t>
-  </si>
-  <si>
-    <t>Resistor_SMD:R_0603_1608Metric</t>
   </si>
   <si>
     <t>C25804</t>
@@ -1133,7 +1124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1300,141 +1291,144 @@
       <c r="C12" t="s">
         <v>41</v>
       </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18">
+        <v>120</v>
+      </c>
+      <c r="B18" t="s">
         <v>61</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
         <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
         <v>64</v>
       </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1448,47 +1442,36 @@
       <c r="C23" t="s">
         <v>78</v>
       </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
         <v>87</v>
-      </c>
-      <c r="B26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
